--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AFCD49-753D-6D46-83F1-C17047FE87CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3AB027-3185-5B46-A21E-0E8FDDC2FC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="3500" yWindow="1100" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="Office_Hours" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -115,25 +116,38 @@
     <t>Chapter 9 - Multiple and Logistic Regression</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Spring Recess</t>
   </si>
   <si>
     <t>Final Exam</t>
   </si>
   <si>
-    <t>8:30pm</t>
+    <t>11:00 am</t>
+  </si>
+  <si>
+    <t>12:00 pm</t>
+  </si>
+  <si>
+    <t>8:30 pm</t>
+  </si>
+  <si>
+    <t>9:30 pm</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ dd;@"/>
     <numFmt numFmtId="165" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -164,13 +178,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,189 +509,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43859</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43866</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43873</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43880</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43887</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43894</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43901</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43908</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43915</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43922</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43943</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43950</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43957</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43964</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -793,7 +863,7 @@
         <v>43937</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -826,7 +896,59 @@
         <v>43968</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D238F9A-0DAB-C047-ABFE-DC80F88C75E3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43868</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>43871</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3AB027-3185-5B46-A21E-0E8FDDC2FC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA497FB-840A-0846-A30B-895A40E9A968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1100" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="3500" yWindow="1100" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -44,100 +44,103 @@
     <t>Resources</t>
   </si>
   <si>
+    <t>Summarizing Data</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Distributions Part I</t>
+  </si>
+  <si>
+    <t>Distributions Part II</t>
+  </si>
+  <si>
+    <t>Foundation for Inference</t>
+  </si>
+  <si>
+    <t>Inference for Categorical Data</t>
+  </si>
+  <si>
+    <t>Inference for Numerical Data</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Multiple Regression</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Intro to Bayesian Analysis</t>
+  </si>
+  <si>
+    <t>Wrap-Up</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Spring Recess</t>
+  </si>
+  <si>
+    <t>11:00 am</t>
+  </si>
+  <si>
+    <t>12:00 pm</t>
+  </si>
+  <si>
+    <t>8:30 pm</t>
+  </si>
+  <si>
+    <t>9:30 pm</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
     <t>Intro to Data</t>
   </si>
   <si>
-    <t>Summarizing Data</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Distributions Part I</t>
-  </si>
-  <si>
-    <t>Distributions Part II</t>
-  </si>
-  <si>
-    <t>Foundation for Inference</t>
-  </si>
-  <si>
-    <t>Inference for Categorical Data</t>
-  </si>
-  <si>
-    <t>Inference for Numerical Data</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
-    <t>Multiple Regression</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>Intro to Bayesian Analysis</t>
-  </si>
-  <si>
-    <t>Wrap-Up</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Chapter 1 - Intro to Data</t>
-  </si>
-  <si>
-    <t>Chapter 2 - Summarizing Data</t>
-  </si>
-  <si>
-    <t>Chapter 3 - Probability</t>
-  </si>
-  <si>
-    <t>Chapter 4 - Distributions</t>
-  </si>
-  <si>
-    <t>Chapter 5 - Foundation for Inference</t>
-  </si>
-  <si>
-    <t>Chapter 6 - Inference for Categorical Data</t>
-  </si>
-  <si>
-    <t>Chapter 7 - Inference for Numerical Data</t>
-  </si>
-  <si>
-    <t>Chapter 8 - Linear Regression</t>
-  </si>
-  <si>
-    <t>Chapter 9 - Multiple and Logistic Regression</t>
-  </si>
-  <si>
-    <t>Spring Recess</t>
-  </si>
-  <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
-    <t>11:00 am</t>
-  </si>
-  <si>
-    <t>12:00 pm</t>
-  </si>
-  <si>
-    <t>8:30 pm</t>
-  </si>
-  <si>
-    <t>9:30 pm</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
+    <t>[Chapter 1 - Intro to Data](/chapters/chapter1)</t>
+  </si>
+  <si>
+    <t>[Chapter 9 - Multiple and Logistic Regression](/chapters/chapter9)</t>
+  </si>
+  <si>
+    <t>[Chapter 8 - Linear Regression](/chapters/chapter8)</t>
+  </si>
+  <si>
+    <t>[Chapter 2 - Summarizing Data](/chapters/chapter2)</t>
+  </si>
+  <si>
+    <t>[Chapter 3 - Probability](/chapters/chapter3)</t>
+  </si>
+  <si>
+    <t>[Chapter 4 - Distributions](/chapters/chapter4)</t>
+  </si>
+  <si>
+    <t>[Chapter 5 - Foundation for Inference](/chapters/chapter5)</t>
+  </si>
+  <si>
+    <t>[Chapter 6 - Inference for Categorical Data](/chapters/chapter6)</t>
+  </si>
+  <si>
+    <t>[Chapter 7 - Inference for Numerical Data](/chapters/chapter7)</t>
+  </si>
+  <si>
+    <t>[Intro to Bayesian Analysis](/chapters/bayesian)</t>
+  </si>
+  <si>
+    <t>[Final Exam](/assignments/final/)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ dd;@"/>
     <numFmt numFmtId="165" formatCode="mmm\ dd"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -192,7 +195,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -545,13 +548,13 @@
         <v>43859</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,13 +562,13 @@
         <v>43866</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,13 +576,13 @@
         <v>43873</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -587,13 +590,13 @@
         <v>43880</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -601,13 +604,13 @@
         <v>43887</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -615,13 +618,13 @@
         <v>43894</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,13 +632,13 @@
         <v>43901</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -643,13 +646,13 @@
         <v>43908</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,13 +660,13 @@
         <v>43915</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,13 +674,13 @@
         <v>43922</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -685,13 +688,13 @@
         <v>43943</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,13 +702,13 @@
         <v>43950</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -713,13 +716,13 @@
         <v>43957</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,13 +730,13 @@
         <v>43964</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -746,22 +749,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -775,7 +778,7 @@
         <v>43863</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -786,7 +789,7 @@
         <v>43870</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -797,7 +800,7 @@
         <v>43877</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -808,7 +811,7 @@
         <v>43891</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,7 +822,7 @@
         <v>43898</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -830,7 +833,7 @@
         <v>43905</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,7 +844,7 @@
         <v>43912</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,7 +855,7 @@
         <v>43940</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -863,7 +866,7 @@
         <v>43937</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -885,7 +888,7 @@
         <v>43964</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -896,7 +899,7 @@
         <v>43968</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -923,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -934,10 +937,10 @@
         <v>43868</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -945,10 +948,10 @@
         <v>43871</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA497FB-840A-0846-A30B-895A40E9A968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12042061-3028-4C40-AC90-DABF196DCA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1100" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="17120" yWindow="7620" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -912,7 +912,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12042061-3028-4C40-AC90-DABF196DCA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFA050-FA32-D54C-A3A8-ECC7B337F657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17120" yWindow="7620" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>[Final Exam](/assignments/final/)</t>
+  </si>
+  <si>
+    <t>[Intro Course Slides](/slides/00-Intro_to_Course.html), [Intor Data Slides](/slides/01-Intro_to_Data.html) [Video](https://youtu.be/DTeIHgKtC_A)</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,6 +558,9 @@
       </c>
       <c r="D2" t="s">
         <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFA050-FA32-D54C-A3A8-ECC7B337F657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D74731-44B1-7644-B44A-F1AC16F21E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <t>[Final Exam](/assignments/final/)</t>
   </si>
   <si>
-    <t>[Intro Course Slides](/slides/00-Intro_to_Course.html), [Intor Data Slides](/slides/01-Intro_to_Data.html) [Video](https://youtu.be/DTeIHgKtC_A)</t>
+    <t>[Intro Course Slides](/slides/00-Intro_to_Course.html), [Intro Data Slides](/slides/01-Intro_to_Data.html), [Video](https://youtu.be/DTeIHgKtC_A)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D74731-44B1-7644-B44A-F1AC16F21E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8D543-A1CC-3247-B13E-3F94B668391C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="3260" yWindow="6740" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>[Intro Course Slides](/slides/00-Intro_to_Course.html), [Intro Data Slides](/slides/01-Intro_to_Data.html), [Video](https://youtu.be/DTeIHgKtC_A)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/02-Summarizing_Data.html), [Video](https://youtu.be/B0IVjywrM8s)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,6 +578,9 @@
       </c>
       <c r="D3" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8D543-A1CC-3247-B13E-3F94B668391C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB693B-5739-9C4F-8B6E-24A217285DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="6740" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>[ Slides](/slides/02-Summarizing_Data.html), [Video](https://youtu.be/B0IVjywrM8s)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/03-Probability.html), [Video](https://youtu.be/dQ-9iKFYM1M)</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,6 +598,9 @@
       </c>
       <c r="D4" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB693B-5739-9C4F-8B6E-24A217285DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179B6B63-C858-8947-8BF7-63AB3A6DE8E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="6740" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1040" yWindow="3720" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>[ Slides](/slides/03-Probability.html), [Video](https://youtu.be/dQ-9iKFYM1M)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/04-Distributions.html), [Video](https://youtu.be/Lefv2U43SZ8)</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,6 +618,9 @@
       </c>
       <c r="D5" t="s">
         <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179B6B63-C858-8947-8BF7-63AB3A6DE8E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C053773-FC38-414B-B753-54B10F4201F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3720" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="14720" yWindow="2080" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>[ Slides](/slides/04-Distributions.html), [Video](https://youtu.be/Lefv2U43SZ8)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/04-Distributions2.html), [Video](https://youtu.be/kTjOPHdQGA4)</t>
   </si>
 </sst>
 </file>
@@ -636,6 +639,9 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C053773-FC38-414B-B753-54B10F4201F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EEC43-209D-784B-A30D-C7B0172693E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14720" yWindow="2080" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>[ Slides](/slides/04-Distributions2.html), [Video](https://youtu.be/kTjOPHdQGA4)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/05-Foundation_for_Inference.html), [Video](https://youtu.be/Z9lP_158qSI)</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,6 +658,9 @@
       </c>
       <c r="D7" t="s">
         <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EEC43-209D-784B-A30D-C7B0172693E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8A22B-0397-DD46-B836-667ED58D1907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="2080" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="16120" yWindow="6480" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>[ Slides](/slides/05-Foundation_for_Inference.html), [Video](https://youtu.be/Z9lP_158qSI)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/06-Inference_for_Categorical_Data.html), [Video](https://youtu.be/dEY65zELvHo)</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,6 +678,9 @@
       </c>
       <c r="D8" t="s">
         <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8A22B-0397-DD46-B836-667ED58D1907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE42267-CA71-924A-93A7-27FD31576616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="6480" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>[ Slides](/slides/06-Inference_for_Categorical_Data.html), [Video](https://youtu.be/dEY65zELvHo)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/07-Inference_for_Numerical_Data.html), [Video](https://youtu.be/ZA-Gp3OGiQo)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,6 +698,9 @@
       </c>
       <c r="D9" t="s">
         <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE42267-CA71-924A-93A7-27FD31576616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC90259-F9DA-E942-A809-23B9D6AE4233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="6480" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>[ Slides](/slides/07-Inference_for_Numerical_Data.html), [Video](https://youtu.be/ZA-Gp3OGiQo)</t>
+  </si>
+  <si>
+    <t>[ Slides](/slides/08-Linear_Regression.html), [Video](https://youtu.be/A8f0GTQ3uYc)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,6 +718,9 @@
       </c>
       <c r="D10" t="s">
         <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC90259-F9DA-E942-A809-23B9D6AE4233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471881C0-E5FC-9942-8259-04CEA42870A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="6480" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -146,28 +146,31 @@
     <t>[Intro Course Slides](/slides/00-Intro_to_Course.html), [Intro Data Slides](/slides/01-Intro_to_Data.html), [Video](https://youtu.be/DTeIHgKtC_A)</t>
   </si>
   <si>
-    <t>[ Slides](/slides/02-Summarizing_Data.html), [Video](https://youtu.be/B0IVjywrM8s)</t>
-  </si>
-  <si>
-    <t>[ Slides](/slides/03-Probability.html), [Video](https://youtu.be/dQ-9iKFYM1M)</t>
-  </si>
-  <si>
-    <t>[ Slides](/slides/04-Distributions.html), [Video](https://youtu.be/Lefv2U43SZ8)</t>
-  </si>
-  <si>
-    <t>[ Slides](/slides/04-Distributions2.html), [Video](https://youtu.be/kTjOPHdQGA4)</t>
-  </si>
-  <si>
-    <t>[ Slides](/slides/05-Foundation_for_Inference.html), [Video](https://youtu.be/Z9lP_158qSI)</t>
-  </si>
-  <si>
-    <t>[ Slides](/slides/06-Inference_for_Categorical_Data.html), [Video](https://youtu.be/dEY65zELvHo)</t>
-  </si>
-  <si>
-    <t>[ Slides](/slides/07-Inference_for_Numerical_Data.html), [Video](https://youtu.be/ZA-Gp3OGiQo)</t>
-  </si>
-  <si>
-    <t>[ Slides](/slides/08-Linear_Regression.html), [Video](https://youtu.be/A8f0GTQ3uYc)</t>
+    <t>[Slides](/slides/08-Linear_Regression2.html), [Video](https://youtu.be/JSUBrooYpro)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/08-Linear_Regression.html), [Video](https://youtu.be/A8f0GTQ3uYc)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/07-Inference_for_Numerical_Data.html), [Video](https://youtu.be/ZA-Gp3OGiQo)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/02-Summarizing_Data.html), [Video](https://youtu.be/B0IVjywrM8s)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/03-Probability.html), [Video](https://youtu.be/dQ-9iKFYM1M)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/04-Distributions.html), [Video](https://youtu.be/Lefv2U43SZ8)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/04-Distributions2.html), [Video](https://youtu.be/kTjOPHdQGA4)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/05-Foundation_for_Inference.html), [Video](https://youtu.be/Z9lP_158qSI)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/06-Inference_for_Categorical_Data.html), [Video](https://youtu.be/dEY65zELvHo)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -618,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -652,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,6 +738,9 @@
       </c>
       <c r="D11" t="s">
         <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471881C0-E5FC-9942-8259-04CEA42870A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F14058-FD0D-6940-961E-3267CDDE993D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="6480" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>[Slides](/slides/06-Inference_for_Categorical_Data.html), [Video](https://youtu.be/dEY65zELvHo)</t>
+  </si>
+  <si>
+    <t>8:00 pm</t>
+  </si>
+  <si>
+    <t>9:00 pm</t>
+  </si>
+  <si>
+    <t>Shiny (optional)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/A-Intro_Shiny.html), [Video](https://youtu.be/8pDslnpbgkM), [R Script](https://github.com/jbryer/DATA606Spring2020/blob/master/R/Regression_Example.R), [Shiny App](https://github.com/jbryer/DATA606Spring2020/tree/master/ShinyRegression)</t>
   </si>
 </sst>
 </file>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,21 +757,24 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43950</v>
+        <v>43943</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -768,12 +783,12 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43957</v>
+        <v>43950</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
@@ -782,20 +797,34 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>43964</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F14058-FD0D-6940-961E-3267CDDE993D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C526E2B-5EE5-B440-BB23-EA778973A710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="6480" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>[Slides](/slides/A-Intro_Shiny.html), [Video](https://youtu.be/8pDslnpbgkM), [R Script](https://github.com/jbryer/DATA606Spring2020/blob/master/R/Regression_Example.R), [Shiny App](https://github.com/jbryer/DATA606Spring2020/tree/master/ShinyRegression)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/09a-Multiple_Regression.html), [Shiny App](https://bcdudek.net/mod3/), [Video](https://youtu.be/W8sxRUY_BQI)</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,6 +787,9 @@
       </c>
       <c r="D13" t="s">
         <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C526E2B-5EE5-B440-BB23-EA778973A710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F09907-F460-3049-9EA6-E60CD0AC0659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="6480" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="22100" yWindow="6800" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>[Slides](/slides/09a-Multiple_Regression.html), [Shiny App](https://bcdudek.net/mod3/), [Video](https://youtu.be/W8sxRUY_BQI)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/09b-Logistic_Regression.html), [Video]()</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,6 +807,9 @@
       </c>
       <c r="D14" t="s">
         <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F09907-F460-3049-9EA6-E60CD0AC0659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F1C05-A5E2-F848-913A-D13933FB27DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22100" yWindow="6800" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -188,7 +188,7 @@
     <t>[Slides](/slides/09a-Multiple_Regression.html), [Shiny App](https://bcdudek.net/mod3/), [Video](https://youtu.be/W8sxRUY_BQI)</t>
   </si>
   <si>
-    <t>[Slides](/slides/09b-Logistic_Regression.html), [Video]()</t>
+    <t>[Slides](/slides/09b-Logistic_Regression.html), [roc.R](https://github.com/jbryer/DATA606Spring2020/blob/master/R/roc.R), [Video](https://youtu.be/o_PsWgRR_3s)</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F1C05-A5E2-F848-913A-D13933FB27DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5A4AE-6A13-DB41-88D4-FA5EF2D162F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22100" yWindow="6800" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>[Slides](/slides/09b-Logistic_Regression.html), [roc.R](https://github.com/jbryer/DATA606Spring2020/blob/master/R/roc.R), [Video](https://youtu.be/o_PsWgRR_3s)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/10-Bayesian_Analysis.html), [Video](https://youtu.be/WPdjkIl88cs)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,6 +827,9 @@
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5A4AE-6A13-DB41-88D4-FA5EF2D162F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D849A9D-CFBA-5C4E-A50A-D90DE89F63A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22100" yWindow="6800" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>[Slides](/slides/10-Bayesian_Analysis.html), [Video](https://youtu.be/WPdjkIl88cs)</t>
+  </si>
+  <si>
+    <t>[Slides](/slides/11-Final_Meetup.html), [Video](https://youtu.be/dRh6BFXvXX0)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,6 +847,9 @@
       </c>
       <c r="D16" t="s">
         <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
